--- a/Project1/testdata/adactin new.xlsx
+++ b/Project1/testdata/adactin new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16680" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -72,9 +73,6 @@
     <t>Enter the mobile number/Email ID</t>
   </si>
   <si>
-    <t>umayalrr@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Able to enter mobile number and Email Id </t>
   </si>
   <si>
@@ -84,9 +82,6 @@
     <t>Enter Password</t>
   </si>
   <si>
-    <t>ammu2017</t>
-  </si>
-  <si>
     <t>User can able to enter the password in text box</t>
   </si>
   <si>
@@ -328,6 +323,12 @@
   </si>
   <si>
     <t xml:space="preserve">Clicked Literary button </t>
+  </si>
+  <si>
+    <t>Jacksparrow22</t>
+  </si>
+  <si>
+    <t>Jack22</t>
   </si>
 </sst>
 </file>
@@ -815,7 +816,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -903,13 +904,13 @@
         <v>17</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>16</v>
@@ -924,16 +925,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>16</v>
@@ -948,14 +949,14 @@
         <v>4</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>16</v>
@@ -976,26 +977,26 @@
     </row>
     <row r="7" spans="1:10" ht="60">
       <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D7" s="16">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>16</v>
@@ -1010,16 +1011,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="H8" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>16</v>
@@ -1034,16 +1035,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="H9" s="21" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>16</v>
@@ -1058,16 +1059,16 @@
         <v>4</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="20">
         <v>1</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>16</v>
@@ -1082,16 +1083,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="22">
         <v>44622</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>16</v>
@@ -1106,16 +1107,16 @@
         <v>6</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="22">
         <v>44624</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>16</v>
@@ -1130,16 +1131,16 @@
         <v>7</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="20">
         <v>1</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>16</v>
@@ -1154,16 +1155,16 @@
         <v>8</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="20">
         <v>1</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>16</v>
@@ -1178,14 +1179,14 @@
         <v>9</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>16</v>
@@ -1206,26 +1207,26 @@
     </row>
     <row r="17" spans="1:10" ht="60">
       <c r="A17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>16</v>
@@ -1240,14 +1241,14 @@
         <v>2</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>16</v>
@@ -1262,16 +1263,16 @@
         <v>3</v>
       </c>
       <c r="E19" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="H19" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>16</v>
@@ -1286,16 +1287,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="H20" s="21" t="s">
         <v>74</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>16</v>
@@ -1310,16 +1311,16 @@
         <v>5</v>
       </c>
       <c r="E21" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="H21" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>80</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>16</v>
@@ -1334,16 +1335,16 @@
         <v>6</v>
       </c>
       <c r="E22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="H22" s="21" t="s">
         <v>82</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>16</v>
@@ -1358,16 +1359,16 @@
         <v>7</v>
       </c>
       <c r="E23" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="H23" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>88</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>16</v>
@@ -1382,16 +1383,16 @@
         <v>8</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24" s="28">
         <v>12136</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>16</v>
@@ -1406,16 +1407,16 @@
         <v>9</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F25" s="24">
         <v>322</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>16</v>
@@ -1430,14 +1431,14 @@
         <v>10</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>16</v>
@@ -1458,26 +1459,26 @@
     </row>
     <row r="28" spans="1:10" ht="63">
       <c r="A28" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>16</v>
@@ -1485,9 +1486,6 @@
       <c r="J28" s="23"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
